--- a/src/main/resources/template/yearAgentLendTemplate.xlsx
+++ b/src/main/resources/template/yearAgentLendTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24165" windowHeight="11460"/>
+    <workbookView windowWidth="24525" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="年度拆借明细" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>年度预算拆借明细表</t>
   </si>
@@ -34,9 +34,6 @@
     <t>状态</t>
   </si>
   <si>
-    <t>名罚</t>
-  </si>
-  <si>
     <t>单据号</t>
   </si>
   <si>
@@ -65,6 +62,18 @@
   </si>
   <si>
     <t>审核日期</t>
+  </si>
+  <si>
+    <t>是否申请免罚</t>
+  </si>
+  <si>
+    <t>免罚理由说明</t>
+  </si>
+  <si>
+    <t>免罚结果</t>
+  </si>
+  <si>
+    <t>罚款理由说明</t>
   </si>
   <si>
     <t>科目</t>
@@ -87,9 +96,6 @@
     <t>{.requestStatus}</t>
   </si>
   <si>
-    <t>{.mf}</t>
-  </si>
-  <si>
     <t>{.orderNumber}</t>
   </si>
   <si>
@@ -136,6 +142,18 @@
   </si>
   <si>
     <t>{.auditTime}</t>
+  </si>
+  <si>
+    <t>${.isExemptFine}</t>
+  </si>
+  <si>
+    <t>${.exemptFineReason}</t>
+  </si>
+  <si>
+    <t>${.exemptFineResult}</t>
+  </si>
+  <si>
+    <t>${.fineReasonRemark}</t>
   </si>
 </sst>
 </file>
@@ -143,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -182,52 +200,74 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,15 +281,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -279,6 +320,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -288,46 +337,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,133 +360,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,56 +544,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -564,17 +582,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -588,13 +595,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,177 +692,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -866,12 +862,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,25 +1189,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="3" width="10.6333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="19" width="12.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="18" width="12.6333333333333" customWidth="1"/>
+    <col min="19" max="19" width="10.875" customWidth="1"/>
+    <col min="20" max="20" width="12.25" customWidth="1"/>
+    <col min="21" max="21" width="12.125" customWidth="1"/>
+    <col min="22" max="22" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:19">
+    <row r="1" customHeight="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,9 +1232,8 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
     </row>
-    <row r="2" customHeight="1" spans="1:19">
+    <row r="2" customHeight="1" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1249,10 +1242,10 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1262,25 +1255,24 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:19">
+    <row r="3" customHeight="1" spans="1:22">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1292,18 +1284,18 @@
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="Q3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1313,109 +1305,130 @@
       <c r="S3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="T3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" ht="36" customHeight="1" spans="1:19">
+    <row r="4" ht="36" customHeight="1" spans="1:22">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
     </row>
-    <row r="5" customHeight="1" spans="1:19">
-      <c r="A5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
+    <row r="5" customHeight="1" spans="1:22">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="I5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="K5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="L5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="M5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="N5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="O5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="P5" s="7" t="s">
         <v>39</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
+  <mergeCells count="18">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -1423,10 +1436,13 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/template/yearAgentLendTemplate.xlsx
+++ b/src/main/resources/template/yearAgentLendTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>年度预算拆借明细表</t>
   </si>
@@ -34,7 +34,7 @@
     <t>状态</t>
   </si>
   <si>
-    <t>单据号</t>
+    <t>单号</t>
   </si>
   <si>
     <t>届别</t>
@@ -43,27 +43,53 @@
     <t>预算单位</t>
   </si>
   <si>
+    <t>拆出信息</t>
+  </si>
+  <si>
+    <t>拆进信息</t>
+  </si>
+  <si>
+    <t>申请信息</t>
+  </si>
+  <si>
+    <t>申请人</t>
+  </si>
+  <si>
+    <t>申请时间</t>
+  </si>
+  <si>
+    <t>审核日期</t>
+  </si>
+  <si>
+    <t>拆出科目</t>
+  </si>
+  <si>
+    <t>拆出动因</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年度预算
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可拆出年度预算
+</t>
+  </si>
+  <si>
+    <t>拆进科目</t>
+  </si>
+  <si>
+    <t>拆进动因</t>
+  </si>
+  <si>
+    <t>已执行金额</t>
+  </si>
+  <si>
     <t>拆借金额</t>
   </si>
   <si>
     <t>拆借原因</t>
   </si>
   <si>
-    <t>拆出科目</t>
-  </si>
-  <si>
-    <t>拆进科目</t>
-  </si>
-  <si>
-    <t>申请人</t>
-  </si>
-  <si>
-    <t>申请日期</t>
-  </si>
-  <si>
-    <t>审核日期</t>
-  </si>
-  <si>
     <t>是否申请免罚</t>
   </si>
   <si>
@@ -76,20 +102,6 @@
     <t>罚款理由说明</t>
   </si>
   <si>
-    <t>科目</t>
-  </si>
-  <si>
-    <t>动因</t>
-  </si>
-  <si>
-    <t>年度预算
-（拆借前）</t>
-  </si>
-  <si>
-    <t>年度预算
-（拆借后）</t>
-  </si>
-  <si>
     <t>{.num}</t>
   </si>
   <si>
@@ -105,34 +117,46 @@
     <t>{.outBudgetUnitName}</t>
   </si>
   <si>
+    <t>{.outSubjectName}</t>
+  </si>
+  <si>
+    <t>{.outAgentName}</t>
+  </si>
+  <si>
+    <t>{.outYearTotal}</t>
+  </si>
+  <si>
+    <t>{.outYearBalance}</t>
+  </si>
+  <si>
+    <t>{.inSubjectName}</t>
+  </si>
+  <si>
+    <t>{.inAgentName}</t>
+  </si>
+  <si>
+    <t>{.inYearTotal}</t>
+  </si>
+  <si>
+    <t>{.inYearBalance}</t>
+  </si>
+  <si>
     <t>{.total}</t>
   </si>
   <si>
     <t>{.remark}</t>
   </si>
   <si>
-    <t>{.outSubjectName}</t>
-  </si>
-  <si>
-    <t>{.outAgentName}</t>
-  </si>
-  <si>
-    <t>{.outYearTotal}</t>
-  </si>
-  <si>
-    <t>{.outYearBalance}</t>
-  </si>
-  <si>
-    <t>{.inSubjectName}</t>
-  </si>
-  <si>
-    <t>{.inAgentName}</t>
-  </si>
-  <si>
-    <t>{.inYearTotal}</t>
-  </si>
-  <si>
-    <t>{.inYearBalance}</t>
+    <t>{.isExemptFine}</t>
+  </si>
+  <si>
+    <t>{.exemptFineReason}</t>
+  </si>
+  <si>
+    <t>{.exemptFineResult}</t>
+  </si>
+  <si>
+    <t>{.fineReasonRemark}</t>
   </si>
   <si>
     <t>{.creatorName}</t>
@@ -142,18 +166,6 @@
   </si>
   <si>
     <t>{.auditTime}</t>
-  </si>
-  <si>
-    <t>${.isExemptFine}</t>
-  </si>
-  <si>
-    <t>${.exemptFineReason}</t>
-  </si>
-  <si>
-    <t>${.exemptFineResult}</t>
-  </si>
-  <si>
-    <t>${.fineReasonRemark}</t>
   </si>
 </sst>
 </file>
@@ -163,8 +175,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -201,12 +213,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -222,52 +294,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,9 +325,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,54 +357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,192 +372,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -597,20 +609,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,11 +633,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,17 +689,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,172 +715,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -867,8 +890,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1192,7 +1224,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="J4" sqref="J4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelRow="4"/>
@@ -1202,16 +1234,10 @@
     <col min="3" max="3" width="16.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="18" width="12.6333333333333" customWidth="1"/>
-    <col min="19" max="19" width="10.875" customWidth="1"/>
-    <col min="20" max="20" width="12.25" customWidth="1"/>
-    <col min="21" max="21" width="12.125" customWidth="1"/>
-    <col min="22" max="22" width="13.75" customWidth="1"/>
+    <col min="6" max="22" width="12.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:18">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,6 +1258,10 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:22">
       <c r="A2" s="2" t="s">
@@ -1243,8 +1273,8 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1255,7 +1285,11 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="V2" s="2" t="s">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1278,41 +1312,31 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" ht="36" customHeight="1" spans="1:22">
@@ -1321,125 +1345,132 @@
       <c r="C4" s="4"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="L4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="N4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="O4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="P4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:22">
       <c r="A5" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:R1"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:V1"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:S3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
